--- a/term6/TW/для теста.xlsx
+++ b/term6/TW/для теста.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GH\university\term6\TW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245AF844-3B48-455C-B396-9952B7263F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0482E80-0C25-4CA2-9F40-13FC2D964978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="600" windowWidth="21705" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10785" windowWidth="28800" windowHeight="4815" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="часть 1" sheetId="1" r:id="rId1"/>
     <sheet name="часть 2" sheetId="3" r:id="rId2"/>
     <sheet name="анализ данных" sheetId="2" r:id="rId3"/>
     <sheet name="тест" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="array">'анализ данных'!$A$1:$A$100</definedName>
@@ -2906,8 +2907,120 @@
     <xf numFmtId="49" fontId="16" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="9" fillId="7" borderId="59" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="9" fillId="7" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2915,12 +3028,36 @@
     <xf numFmtId="49" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2940,148 +3077,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="9" fillId="7" borderId="59" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="9" fillId="7" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -13848,28 +13849,28 @@
   <sheetData>
     <row r="1" spans="1:100" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="67"/>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="140"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="201"/>
+      <c r="T1" s="201"/>
+      <c r="U1" s="202"/>
     </row>
     <row r="2" spans="1:100" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="103">
@@ -14184,56 +14185,56 @@
     <row r="7" spans="1:100" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:100" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="141"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="141"/>
-      <c r="R8" s="141"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="141"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="203"/>
+      <c r="H8" s="203"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="203"/>
+      <c r="L8" s="203"/>
+      <c r="M8" s="203"/>
+      <c r="N8" s="203"/>
+      <c r="O8" s="203"/>
+      <c r="P8" s="203"/>
+      <c r="Q8" s="203"/>
+      <c r="R8" s="203"/>
+      <c r="S8" s="203"/>
+      <c r="T8" s="203"/>
+      <c r="U8" s="203"/>
       <c r="V8" s="2"/>
     </row>
     <row r="9" spans="1:100" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>1</v>
       </c>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="133"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="133"/>
-      <c r="R9" s="133"/>
-      <c r="S9" s="133"/>
-      <c r="T9" s="133"/>
-      <c r="U9" s="133"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="190"/>
+      <c r="I9" s="190"/>
+      <c r="J9" s="190"/>
+      <c r="K9" s="190"/>
+      <c r="L9" s="190"/>
+      <c r="M9" s="190"/>
+      <c r="N9" s="190"/>
+      <c r="O9" s="190"/>
+      <c r="P9" s="190"/>
+      <c r="Q9" s="190"/>
+      <c r="R9" s="190"/>
+      <c r="S9" s="190"/>
+      <c r="T9" s="190"/>
+      <c r="U9" s="190"/>
       <c r="V9" s="4"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
@@ -14318,28 +14319,28 @@
       <c r="A10" s="11">
         <v>2</v>
       </c>
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="133"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="133"/>
-      <c r="R10" s="133"/>
-      <c r="S10" s="133"/>
-      <c r="T10" s="133"/>
-      <c r="U10" s="133"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="190"/>
+      <c r="M10" s="190"/>
+      <c r="N10" s="190"/>
+      <c r="O10" s="190"/>
+      <c r="P10" s="190"/>
+      <c r="Q10" s="190"/>
+      <c r="R10" s="190"/>
+      <c r="S10" s="190"/>
+      <c r="T10" s="190"/>
+      <c r="U10" s="190"/>
       <c r="V10" s="4"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
@@ -14424,28 +14425,28 @@
       <c r="A11" s="11">
         <v>3</v>
       </c>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="133"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="133"/>
-      <c r="R11" s="133"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="133"/>
-      <c r="U11" s="133"/>
+      <c r="C11" s="190"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="190"/>
+      <c r="N11" s="190"/>
+      <c r="O11" s="190"/>
+      <c r="P11" s="190"/>
+      <c r="Q11" s="190"/>
+      <c r="R11" s="190"/>
+      <c r="S11" s="190"/>
+      <c r="T11" s="190"/>
+      <c r="U11" s="190"/>
       <c r="V11" s="4"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
@@ -14530,28 +14531,28 @@
       <c r="A12" s="11">
         <v>4</v>
       </c>
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="133"/>
-      <c r="N12" s="133"/>
-      <c r="O12" s="133"/>
-      <c r="P12" s="133"/>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="133"/>
-      <c r="S12" s="133"/>
-      <c r="T12" s="133"/>
-      <c r="U12" s="133"/>
+      <c r="C12" s="190"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="190"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="190"/>
+      <c r="Q12" s="190"/>
+      <c r="R12" s="190"/>
+      <c r="S12" s="190"/>
+      <c r="T12" s="190"/>
+      <c r="U12" s="190"/>
       <c r="V12" s="4"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
@@ -14636,28 +14637,28 @@
       <c r="A13" s="11">
         <v>5</v>
       </c>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="133"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="133"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="133"/>
-      <c r="R13" s="133"/>
-      <c r="S13" s="133"/>
-      <c r="T13" s="133"/>
-      <c r="U13" s="133"/>
+      <c r="C13" s="190"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="190"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="190"/>
+      <c r="M13" s="190"/>
+      <c r="N13" s="190"/>
+      <c r="O13" s="190"/>
+      <c r="P13" s="190"/>
+      <c r="Q13" s="190"/>
+      <c r="R13" s="190"/>
+      <c r="S13" s="190"/>
+      <c r="T13" s="190"/>
+      <c r="U13" s="190"/>
       <c r="V13" s="4"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
@@ -14742,28 +14743,28 @@
       <c r="A14" s="11">
         <v>6</v>
       </c>
-      <c r="B14" s="133" t="s">
+      <c r="B14" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133"/>
-      <c r="O14" s="133"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="133"/>
-      <c r="R14" s="133"/>
-      <c r="S14" s="133"/>
-      <c r="T14" s="133"/>
-      <c r="U14" s="133"/>
+      <c r="C14" s="190"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="190"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="190"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="190"/>
+      <c r="O14" s="190"/>
+      <c r="P14" s="190"/>
+      <c r="Q14" s="190"/>
+      <c r="R14" s="190"/>
+      <c r="S14" s="190"/>
+      <c r="T14" s="190"/>
+      <c r="U14" s="190"/>
       <c r="V14" s="4"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
@@ -14848,28 +14849,28 @@
       <c r="A15" s="11">
         <v>7</v>
       </c>
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="133"/>
-      <c r="M15" s="133"/>
-      <c r="N15" s="133"/>
-      <c r="O15" s="133"/>
-      <c r="P15" s="133"/>
-      <c r="Q15" s="133"/>
-      <c r="R15" s="133"/>
-      <c r="S15" s="133"/>
-      <c r="T15" s="133"/>
-      <c r="U15" s="133"/>
+      <c r="C15" s="190"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="190"/>
+      <c r="M15" s="190"/>
+      <c r="N15" s="190"/>
+      <c r="O15" s="190"/>
+      <c r="P15" s="190"/>
+      <c r="Q15" s="190"/>
+      <c r="R15" s="190"/>
+      <c r="S15" s="190"/>
+      <c r="T15" s="190"/>
+      <c r="U15" s="190"/>
       <c r="V15" s="4"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
@@ -14954,28 +14955,28 @@
       <c r="A16" s="11">
         <v>8</v>
       </c>
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="133"/>
-      <c r="M16" s="133"/>
-      <c r="N16" s="133"/>
-      <c r="O16" s="133"/>
-      <c r="P16" s="133"/>
-      <c r="Q16" s="133"/>
-      <c r="R16" s="133"/>
-      <c r="S16" s="133"/>
-      <c r="T16" s="133"/>
-      <c r="U16" s="133"/>
+      <c r="C16" s="190"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="190"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="190"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="190"/>
+      <c r="M16" s="190"/>
+      <c r="N16" s="190"/>
+      <c r="O16" s="190"/>
+      <c r="P16" s="190"/>
+      <c r="Q16" s="190"/>
+      <c r="R16" s="190"/>
+      <c r="S16" s="190"/>
+      <c r="T16" s="190"/>
+      <c r="U16" s="190"/>
       <c r="V16" s="4"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
@@ -15073,28 +15074,28 @@
       <c r="A18" s="16">
         <v>1</v>
       </c>
-      <c r="B18" s="156" t="s">
+      <c r="B18" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="157"/>
-      <c r="P18" s="157"/>
-      <c r="Q18" s="157"/>
-      <c r="R18" s="157"/>
-      <c r="S18" s="157"/>
-      <c r="T18" s="157"/>
-      <c r="U18" s="158"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="192"/>
+      <c r="L18" s="192"/>
+      <c r="M18" s="192"/>
+      <c r="N18" s="192"/>
+      <c r="O18" s="192"/>
+      <c r="P18" s="192"/>
+      <c r="Q18" s="192"/>
+      <c r="R18" s="192"/>
+      <c r="S18" s="192"/>
+      <c r="T18" s="192"/>
+      <c r="U18" s="193"/>
     </row>
     <row r="19" spans="1:100" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
@@ -15156,28 +15157,28 @@
       <c r="A24" s="16">
         <v>2</v>
       </c>
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="143"/>
-      <c r="K24" s="143"/>
-      <c r="L24" s="143"/>
-      <c r="M24" s="143"/>
-      <c r="N24" s="143"/>
-      <c r="O24" s="143"/>
-      <c r="P24" s="143"/>
-      <c r="Q24" s="143"/>
-      <c r="R24" s="143"/>
-      <c r="S24" s="143"/>
-      <c r="T24" s="143"/>
-      <c r="U24" s="144"/>
+      <c r="C24" s="205"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="205"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="205"/>
+      <c r="K24" s="205"/>
+      <c r="L24" s="205"/>
+      <c r="M24" s="205"/>
+      <c r="N24" s="205"/>
+      <c r="O24" s="205"/>
+      <c r="P24" s="205"/>
+      <c r="Q24" s="205"/>
+      <c r="R24" s="205"/>
+      <c r="S24" s="205"/>
+      <c r="T24" s="205"/>
+      <c r="U24" s="206"/>
     </row>
     <row r="25" spans="1:100" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="43" t="s">
@@ -15599,28 +15600,28 @@
       <c r="A39" s="16">
         <v>3</v>
       </c>
-      <c r="B39" s="145" t="s">
+      <c r="B39" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="146"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="146"/>
-      <c r="K39" s="146"/>
-      <c r="L39" s="146"/>
-      <c r="M39" s="146"/>
-      <c r="N39" s="146"/>
-      <c r="O39" s="146"/>
-      <c r="P39" s="146"/>
-      <c r="Q39" s="146"/>
-      <c r="R39" s="146"/>
-      <c r="S39" s="146"/>
-      <c r="T39" s="146"/>
-      <c r="U39" s="147"/>
+      <c r="C39" s="167"/>
+      <c r="D39" s="167"/>
+      <c r="E39" s="167"/>
+      <c r="F39" s="167"/>
+      <c r="G39" s="167"/>
+      <c r="H39" s="167"/>
+      <c r="I39" s="167"/>
+      <c r="J39" s="167"/>
+      <c r="K39" s="167"/>
+      <c r="L39" s="167"/>
+      <c r="M39" s="167"/>
+      <c r="N39" s="167"/>
+      <c r="O39" s="167"/>
+      <c r="P39" s="167"/>
+      <c r="Q39" s="167"/>
+      <c r="R39" s="167"/>
+      <c r="S39" s="167"/>
+      <c r="T39" s="167"/>
+      <c r="U39" s="168"/>
     </row>
     <row r="40" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15813,28 +15814,28 @@
       <c r="A71" s="16">
         <v>4</v>
       </c>
-      <c r="B71" s="145" t="s">
+      <c r="B71" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="146"/>
-      <c r="D71" s="146"/>
-      <c r="E71" s="146"/>
-      <c r="F71" s="146"/>
-      <c r="G71" s="146"/>
-      <c r="H71" s="146"/>
-      <c r="I71" s="146"/>
-      <c r="J71" s="146"/>
-      <c r="K71" s="146"/>
-      <c r="L71" s="146"/>
-      <c r="M71" s="146"/>
-      <c r="N71" s="146"/>
-      <c r="O71" s="146"/>
-      <c r="P71" s="146"/>
-      <c r="Q71" s="146"/>
-      <c r="R71" s="146"/>
-      <c r="S71" s="146"/>
-      <c r="T71" s="146"/>
-      <c r="U71" s="147"/>
+      <c r="C71" s="167"/>
+      <c r="D71" s="167"/>
+      <c r="E71" s="167"/>
+      <c r="F71" s="167"/>
+      <c r="G71" s="167"/>
+      <c r="H71" s="167"/>
+      <c r="I71" s="167"/>
+      <c r="J71" s="167"/>
+      <c r="K71" s="167"/>
+      <c r="L71" s="167"/>
+      <c r="M71" s="167"/>
+      <c r="N71" s="167"/>
+      <c r="O71" s="167"/>
+      <c r="P71" s="167"/>
+      <c r="Q71" s="167"/>
+      <c r="R71" s="167"/>
+      <c r="S71" s="167"/>
+      <c r="T71" s="167"/>
+      <c r="U71" s="168"/>
     </row>
     <row r="72" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -16169,71 +16170,71 @@
       <c r="A92" s="16">
         <v>5</v>
       </c>
-      <c r="B92" s="145" t="s">
+      <c r="B92" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="C92" s="146"/>
-      <c r="D92" s="146"/>
-      <c r="E92" s="146"/>
-      <c r="F92" s="146"/>
-      <c r="G92" s="146"/>
-      <c r="H92" s="146"/>
-      <c r="I92" s="146"/>
-      <c r="J92" s="146"/>
-      <c r="K92" s="146"/>
-      <c r="L92" s="146"/>
-      <c r="M92" s="146"/>
-      <c r="N92" s="146"/>
-      <c r="O92" s="146"/>
-      <c r="P92" s="146"/>
-      <c r="Q92" s="146"/>
-      <c r="R92" s="146"/>
-      <c r="S92" s="146"/>
-      <c r="T92" s="146"/>
-      <c r="U92" s="147"/>
+      <c r="C92" s="167"/>
+      <c r="D92" s="167"/>
+      <c r="E92" s="167"/>
+      <c r="F92" s="167"/>
+      <c r="G92" s="167"/>
+      <c r="H92" s="167"/>
+      <c r="I92" s="167"/>
+      <c r="J92" s="167"/>
+      <c r="K92" s="167"/>
+      <c r="L92" s="167"/>
+      <c r="M92" s="167"/>
+      <c r="N92" s="167"/>
+      <c r="O92" s="167"/>
+      <c r="P92" s="167"/>
+      <c r="Q92" s="167"/>
+      <c r="R92" s="167"/>
+      <c r="S92" s="167"/>
+      <c r="T92" s="167"/>
+      <c r="U92" s="168"/>
     </row>
     <row r="93" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="134" t="s">
+      <c r="B93" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="135"/>
-      <c r="D93" s="135"/>
-      <c r="E93" s="135"/>
-      <c r="F93" s="135"/>
-      <c r="G93" s="135"/>
-      <c r="H93" s="135"/>
-      <c r="I93" s="135"/>
+      <c r="C93" s="181"/>
+      <c r="D93" s="181"/>
+      <c r="E93" s="181"/>
+      <c r="F93" s="181"/>
+      <c r="G93" s="181"/>
+      <c r="H93" s="181"/>
+      <c r="I93" s="181"/>
     </row>
     <row r="94" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="136" t="s">
+      <c r="B94" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="C94" s="137"/>
-      <c r="D94" s="137"/>
-      <c r="E94" s="137"/>
-      <c r="F94" s="137"/>
-      <c r="G94" s="137"/>
-      <c r="H94" s="137"/>
-      <c r="I94" s="137"/>
+      <c r="C94" s="170"/>
+      <c r="D94" s="170"/>
+      <c r="E94" s="170"/>
+      <c r="F94" s="170"/>
+      <c r="G94" s="170"/>
+      <c r="H94" s="170"/>
+      <c r="I94" s="170"/>
     </row>
     <row r="95" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="136" t="s">
+      <c r="B95" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="C95" s="137"/>
-      <c r="D95" s="137"/>
-      <c r="E95" s="137"/>
-      <c r="F95" s="137"/>
-      <c r="G95" s="137"/>
-      <c r="H95" s="137"/>
-      <c r="I95" s="137"/>
+      <c r="C95" s="170"/>
+      <c r="D95" s="170"/>
+      <c r="E95" s="170"/>
+      <c r="F95" s="170"/>
+      <c r="G95" s="170"/>
+      <c r="H95" s="170"/>
+      <c r="I95" s="170"/>
     </row>
     <row r="96" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="97" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="159" t="s">
+      <c r="B97" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="C97" s="160"/>
+      <c r="C97" s="157"/>
       <c r="D97" s="46">
         <f t="array" ref="D97:K97">x</f>
         <v>36</v>
@@ -16261,10 +16262,10 @@
       </c>
     </row>
     <row r="98" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="163" t="s">
+      <c r="B98" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="C98" s="164"/>
+      <c r="C98" s="177"/>
       <c r="D98" s="25">
         <f>D97^2</f>
         <v>1296</v>
@@ -16299,10 +16300,10 @@
       </c>
     </row>
     <row r="99" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="161" t="s">
+      <c r="B99" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="C99" s="162"/>
+      <c r="C99" s="172"/>
       <c r="D99" s="25">
         <f t="array" ref="D99:K99">ni</f>
         <v>5</v>
@@ -16330,10 +16331,10 @@
       </c>
     </row>
     <row r="100" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="148" t="s">
+      <c r="B100" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="C100" s="149"/>
+      <c r="C100" s="183"/>
       <c r="D100" s="80">
         <f t="shared" ref="D100:K100" si="22">(D97-SUM(series)/n)^2</f>
         <v>107.74440000000006</v>
@@ -16381,13 +16382,13 @@
     </row>
     <row r="103" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="67"/>
-      <c r="B103" s="165" t="s">
+      <c r="B103" s="194" t="s">
         <v>35</v>
       </c>
-      <c r="C103" s="166"/>
-      <c r="D103" s="166"/>
-      <c r="E103" s="166"/>
-      <c r="F103" s="167"/>
+      <c r="C103" s="195"/>
+      <c r="D103" s="195"/>
+      <c r="E103" s="195"/>
+      <c r="F103" s="196"/>
       <c r="G103" s="95">
         <f>(D97*D99 + E97*E99 + F97*F99 + G97*G99 + H97*H99 + I97*I99 + J97*J99 + K97*K99) / n</f>
         <v>46.47</v>
@@ -16403,13 +16404,13 @@
     </row>
     <row r="104" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="67"/>
-      <c r="B104" s="168" t="s">
+      <c r="B104" s="197" t="s">
         <v>80</v>
       </c>
-      <c r="C104" s="169"/>
-      <c r="D104" s="169"/>
-      <c r="E104" s="169"/>
-      <c r="F104" s="170"/>
+      <c r="C104" s="198"/>
+      <c r="D104" s="198"/>
+      <c r="E104" s="198"/>
+      <c r="F104" s="199"/>
       <c r="G104" s="98">
         <f>((D97-G103)^2*D99+(E97-G103)^2*E99+(F97-G103)^2*F99+(G97-G103)^2*G99+(H97-G103)^2*H99+(I97-G103)^2*I99+(J97-G103)^2*J99+(K97-G103)^2*K99) / n</f>
         <v>30.149099999999997</v>
@@ -16425,13 +16426,13 @@
     </row>
     <row r="105" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="67"/>
-      <c r="B105" s="168" t="s">
+      <c r="B105" s="197" t="s">
         <v>53</v>
       </c>
-      <c r="C105" s="169"/>
-      <c r="D105" s="169"/>
-      <c r="E105" s="169"/>
-      <c r="F105" s="170"/>
+      <c r="C105" s="198"/>
+      <c r="D105" s="198"/>
+      <c r="E105" s="198"/>
+      <c r="F105" s="199"/>
       <c r="G105" s="98">
         <f>(D98*D99+E98*E99+F98*F99+G98*G99+H98*H99+I98*I99+J98*J99+K98*K99) / n - G103^2</f>
         <v>30.149100000000089</v>
@@ -16443,13 +16444,13 @@
       <c r="I105" s="89"/>
     </row>
     <row r="106" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="150" t="s">
+      <c r="B106" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="C106" s="151"/>
-      <c r="D106" s="151"/>
-      <c r="E106" s="151"/>
-      <c r="F106" s="152"/>
+      <c r="C106" s="185"/>
+      <c r="D106" s="185"/>
+      <c r="E106" s="185"/>
+      <c r="F106" s="186"/>
       <c r="G106" s="98">
         <f>G103</f>
         <v>46.47</v>
@@ -16458,13 +16459,13 @@
       <c r="I106" s="89"/>
     </row>
     <row r="107" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="153" t="s">
+      <c r="B107" s="187" t="s">
         <v>79</v>
       </c>
-      <c r="C107" s="154"/>
-      <c r="D107" s="154"/>
-      <c r="E107" s="154"/>
-      <c r="F107" s="155"/>
+      <c r="C107" s="188"/>
+      <c r="D107" s="188"/>
+      <c r="E107" s="188"/>
+      <c r="F107" s="189"/>
       <c r="G107" s="99">
         <f>((D97-G103)^2*D99+(E97-G103)^2*E99+(F97-G103)^2*F99+(G97-G103)^2*G99+(H97-G103)^2*H99+(I97-G103)^2*I99+(J97-G103)^2*J99+(K97-G103)^2*K99) / (n-1)</f>
         <v>30.453636363636363</v>
@@ -16480,41 +16481,41 @@
       <c r="A109" s="16">
         <v>6</v>
       </c>
-      <c r="B109" s="145" t="s">
+      <c r="B109" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="C109" s="146"/>
-      <c r="D109" s="146"/>
-      <c r="E109" s="146"/>
-      <c r="F109" s="146"/>
-      <c r="G109" s="146"/>
-      <c r="H109" s="146"/>
-      <c r="I109" s="146"/>
-      <c r="J109" s="146"/>
-      <c r="K109" s="146"/>
-      <c r="L109" s="146"/>
-      <c r="M109" s="146"/>
-      <c r="N109" s="146"/>
-      <c r="O109" s="146"/>
-      <c r="P109" s="146"/>
-      <c r="Q109" s="146"/>
-      <c r="R109" s="146"/>
-      <c r="S109" s="146"/>
-      <c r="T109" s="146"/>
-      <c r="U109" s="147"/>
+      <c r="C109" s="167"/>
+      <c r="D109" s="167"/>
+      <c r="E109" s="167"/>
+      <c r="F109" s="167"/>
+      <c r="G109" s="167"/>
+      <c r="H109" s="167"/>
+      <c r="I109" s="167"/>
+      <c r="J109" s="167"/>
+      <c r="K109" s="167"/>
+      <c r="L109" s="167"/>
+      <c r="M109" s="167"/>
+      <c r="N109" s="167"/>
+      <c r="O109" s="167"/>
+      <c r="P109" s="167"/>
+      <c r="Q109" s="167"/>
+      <c r="R109" s="167"/>
+      <c r="S109" s="167"/>
+      <c r="T109" s="167"/>
+      <c r="U109" s="168"/>
     </row>
     <row r="110" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="111" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="134" t="s">
+      <c r="B111" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="C111" s="135"/>
-      <c r="D111" s="135"/>
-      <c r="E111" s="135"/>
-      <c r="F111" s="135"/>
-      <c r="G111" s="135"/>
-      <c r="H111" s="135"/>
-      <c r="I111" s="135"/>
+      <c r="C111" s="181"/>
+      <c r="D111" s="181"/>
+      <c r="E111" s="181"/>
+      <c r="F111" s="181"/>
+      <c r="G111" s="181"/>
+      <c r="H111" s="181"/>
+      <c r="I111" s="181"/>
     </row>
     <row r="112" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="43" t="s">
@@ -16564,16 +16565,16 @@
     </row>
     <row r="118" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="119" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="136" t="s">
+      <c r="B119" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="C119" s="137"/>
-      <c r="D119" s="137"/>
-      <c r="E119" s="137"/>
-      <c r="F119" s="137"/>
-      <c r="G119" s="137"/>
-      <c r="H119" s="137"/>
-      <c r="I119" s="137"/>
+      <c r="C119" s="170"/>
+      <c r="D119" s="170"/>
+      <c r="E119" s="170"/>
+      <c r="F119" s="170"/>
+      <c r="G119" s="170"/>
+      <c r="H119" s="170"/>
+      <c r="I119" s="170"/>
     </row>
     <row r="120" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="121" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -16602,28 +16603,28 @@
       <c r="A124" s="16">
         <v>7</v>
       </c>
-      <c r="B124" s="145" t="s">
+      <c r="B124" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="146"/>
-      <c r="D124" s="146"/>
-      <c r="E124" s="146"/>
-      <c r="F124" s="146"/>
-      <c r="G124" s="146"/>
-      <c r="H124" s="146"/>
-      <c r="I124" s="146"/>
-      <c r="J124" s="146"/>
-      <c r="K124" s="146"/>
-      <c r="L124" s="146"/>
-      <c r="M124" s="146"/>
-      <c r="N124" s="146"/>
-      <c r="O124" s="146"/>
-      <c r="P124" s="146"/>
-      <c r="Q124" s="146"/>
-      <c r="R124" s="146"/>
-      <c r="S124" s="146"/>
-      <c r="T124" s="146"/>
-      <c r="U124" s="147"/>
+      <c r="C124" s="167"/>
+      <c r="D124" s="167"/>
+      <c r="E124" s="167"/>
+      <c r="F124" s="167"/>
+      <c r="G124" s="167"/>
+      <c r="H124" s="167"/>
+      <c r="I124" s="167"/>
+      <c r="J124" s="167"/>
+      <c r="K124" s="167"/>
+      <c r="L124" s="167"/>
+      <c r="M124" s="167"/>
+      <c r="N124" s="167"/>
+      <c r="O124" s="167"/>
+      <c r="P124" s="167"/>
+      <c r="Q124" s="167"/>
+      <c r="R124" s="167"/>
+      <c r="S124" s="167"/>
+      <c r="T124" s="167"/>
+      <c r="U124" s="168"/>
     </row>
     <row r="125" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="35" t="s">
@@ -16650,23 +16651,23 @@
       <c r="I126" s="34"/>
     </row>
     <row r="127" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="136" t="s">
+      <c r="B127" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="C127" s="137"/>
-      <c r="D127" s="137"/>
-      <c r="E127" s="137"/>
-      <c r="F127" s="137"/>
-      <c r="G127" s="137"/>
-      <c r="H127" s="137"/>
-      <c r="I127" s="137"/>
+      <c r="C127" s="170"/>
+      <c r="D127" s="170"/>
+      <c r="E127" s="170"/>
+      <c r="F127" s="170"/>
+      <c r="G127" s="170"/>
+      <c r="H127" s="170"/>
+      <c r="I127" s="170"/>
     </row>
     <row r="128" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="129" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="159" t="s">
+      <c r="B129" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="C129" s="160"/>
+      <c r="C129" s="157"/>
       <c r="D129" s="46">
         <f t="array" ref="D129:K129">x</f>
         <v>36</v>
@@ -16694,10 +16695,10 @@
       </c>
     </row>
     <row r="130" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="171" t="s">
+      <c r="B130" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="C130" s="172"/>
+      <c r="C130" s="179"/>
       <c r="D130" s="26" t="str">
         <f t="shared" ref="D130:K130" si="23">SUBSTITUTE($B$130, "a; b", _xlfn.TEXTJOIN("; ", TRUE, D129 - h / 2, D129 + h / 2))</f>
         <v>(34.5; 37.5]</v>
@@ -16732,10 +16733,10 @@
       </c>
     </row>
     <row r="131" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="161" t="s">
+      <c r="B131" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="C131" s="162"/>
+      <c r="C131" s="172"/>
       <c r="D131" s="25">
         <f t="array" ref="D131:K131">ni</f>
         <v>5</v>
@@ -16763,10 +16764,10 @@
       </c>
     </row>
     <row r="132" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="161" t="s">
+      <c r="B132" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="C132" s="162"/>
+      <c r="C132" s="172"/>
       <c r="D132" s="25">
         <f>C33</f>
         <v>5</v>
@@ -16801,10 +16802,10 @@
       </c>
     </row>
     <row r="133" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="163" t="s">
+      <c r="B133" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="C133" s="164"/>
+      <c r="C133" s="177"/>
       <c r="D133" s="25">
         <f t="shared" ref="D133:K133" si="25">ABS(D129-avg)</f>
         <v>10.469999999999999</v>
@@ -16839,10 +16840,10 @@
       </c>
     </row>
     <row r="134" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="176" t="s">
+      <c r="B134" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="C134" s="177"/>
+      <c r="C134" s="159"/>
       <c r="D134" s="80">
         <f t="shared" ref="D134:K134" si="26">(D129-SUM(series)/n)^2</f>
         <v>107.74440000000006</v>
@@ -16890,13 +16891,13 @@
       </c>
     </row>
     <row r="138" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="178" t="s">
+      <c r="B138" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="C138" s="179"/>
-      <c r="D138" s="179"/>
-      <c r="E138" s="179"/>
-      <c r="F138" s="180"/>
+      <c r="C138" s="174"/>
+      <c r="D138" s="174"/>
+      <c r="E138" s="174"/>
+      <c r="F138" s="175"/>
       <c r="G138" s="95">
         <f>(D133*D131+E133*E131+F133*F131+G133*G131+H133*H131+I133*I131+J133*J131+K133*K131) / n</f>
         <v>4.59</v>
@@ -16908,13 +16909,13 @@
       <c r="I138" s="112"/>
     </row>
     <row r="139" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="173" t="s">
+      <c r="B139" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="C139" s="174"/>
-      <c r="D139" s="174"/>
-      <c r="E139" s="174"/>
-      <c r="F139" s="175"/>
+      <c r="C139" s="161"/>
+      <c r="D139" s="161"/>
+      <c r="E139" s="161"/>
+      <c r="F139" s="162"/>
       <c r="G139" s="113">
         <f>SQRT((D134*D131 + E134*E131 + F134*F131 + G134*G131 + H134 * H131 + I134*I131 + J134*J131+K134*K131) / n)</f>
         <v>5.4915571562171692</v>
@@ -16929,13 +16930,13 @@
       </c>
     </row>
     <row r="140" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="173" t="s">
+      <c r="B140" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="C140" s="174"/>
-      <c r="D140" s="174"/>
-      <c r="E140" s="174"/>
-      <c r="F140" s="175"/>
+      <c r="C140" s="161"/>
+      <c r="D140" s="161"/>
+      <c r="E140" s="161"/>
+      <c r="F140" s="162"/>
       <c r="G140" s="114">
         <f>H129</f>
         <v>48</v>
@@ -16950,13 +16951,13 @@
       </c>
     </row>
     <row r="141" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="173" t="s">
+      <c r="B141" s="160" t="s">
         <v>65</v>
       </c>
-      <c r="C141" s="174"/>
-      <c r="D141" s="174"/>
-      <c r="E141" s="174"/>
-      <c r="F141" s="175"/>
+      <c r="C141" s="161"/>
+      <c r="D141" s="161"/>
+      <c r="E141" s="161"/>
+      <c r="F141" s="162"/>
       <c r="G141" s="113">
         <f>H129-h/2 + (H131-G131)/(H131-G131+H131-I131)</f>
         <v>46.642857142857146</v>
@@ -16965,13 +16966,13 @@
       <c r="I141" s="89"/>
     </row>
     <row r="142" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="173" t="s">
+      <c r="B142" s="160" t="s">
         <v>75</v>
       </c>
-      <c r="C142" s="174"/>
-      <c r="D142" s="174"/>
-      <c r="E142" s="174"/>
-      <c r="F142" s="175"/>
+      <c r="C142" s="161"/>
+      <c r="D142" s="161"/>
+      <c r="E142" s="161"/>
+      <c r="F142" s="162"/>
       <c r="G142" s="114">
         <f>(G129+H129) / 2</f>
         <v>46.5</v>
@@ -16986,13 +16987,13 @@
       </c>
     </row>
     <row r="143" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="173" t="s">
+      <c r="B143" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="C143" s="174"/>
-      <c r="D143" s="174"/>
-      <c r="E143" s="174"/>
-      <c r="F143" s="175"/>
+      <c r="C143" s="161"/>
+      <c r="D143" s="161"/>
+      <c r="E143" s="161"/>
+      <c r="F143" s="162"/>
       <c r="G143" s="115">
         <f>H129 - h/2 + h * (n/2 -G132)/H131</f>
         <v>46.5</v>
@@ -17001,13 +17002,13 @@
       <c r="I143" s="89"/>
     </row>
     <row r="144" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="173" t="s">
+      <c r="B144" s="160" t="s">
         <v>67</v>
       </c>
-      <c r="C144" s="174"/>
-      <c r="D144" s="174"/>
-      <c r="E144" s="174"/>
-      <c r="F144" s="175"/>
+      <c r="C144" s="161"/>
+      <c r="D144" s="161"/>
+      <c r="E144" s="161"/>
+      <c r="F144" s="162"/>
       <c r="G144" s="116">
         <f>d / avg</f>
         <v>9.8773402194964499E-2</v>
@@ -17016,13 +17017,13 @@
       <c r="I144" s="89"/>
     </row>
     <row r="145" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="181" t="s">
+      <c r="B145" s="163" t="s">
         <v>68</v>
       </c>
-      <c r="C145" s="182"/>
-      <c r="D145" s="182"/>
-      <c r="E145" s="182"/>
-      <c r="F145" s="183"/>
+      <c r="C145" s="164"/>
+      <c r="D145" s="164"/>
+      <c r="E145" s="164"/>
+      <c r="F145" s="165"/>
       <c r="G145" s="117">
         <f>σ / avg</f>
         <v>0.1181742448077721</v>
@@ -17035,28 +17036,28 @@
       <c r="A147" s="16">
         <v>8</v>
       </c>
-      <c r="B147" s="145" t="s">
+      <c r="B147" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="C147" s="146"/>
-      <c r="D147" s="146"/>
-      <c r="E147" s="146"/>
-      <c r="F147" s="146"/>
-      <c r="G147" s="146"/>
-      <c r="H147" s="146"/>
-      <c r="I147" s="146"/>
-      <c r="J147" s="146"/>
-      <c r="K147" s="146"/>
-      <c r="L147" s="146"/>
-      <c r="M147" s="146"/>
-      <c r="N147" s="146"/>
-      <c r="O147" s="146"/>
-      <c r="P147" s="146"/>
-      <c r="Q147" s="146"/>
-      <c r="R147" s="146"/>
-      <c r="S147" s="146"/>
-      <c r="T147" s="146"/>
-      <c r="U147" s="147"/>
+      <c r="C147" s="167"/>
+      <c r="D147" s="167"/>
+      <c r="E147" s="167"/>
+      <c r="F147" s="167"/>
+      <c r="G147" s="167"/>
+      <c r="H147" s="167"/>
+      <c r="I147" s="167"/>
+      <c r="J147" s="167"/>
+      <c r="K147" s="167"/>
+      <c r="L147" s="167"/>
+      <c r="M147" s="167"/>
+      <c r="N147" s="167"/>
+      <c r="O147" s="167"/>
+      <c r="P147" s="167"/>
+      <c r="Q147" s="167"/>
+      <c r="R147" s="167"/>
+      <c r="S147" s="167"/>
+      <c r="T147" s="167"/>
+      <c r="U147" s="168"/>
     </row>
     <row r="148" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="35" t="s">
@@ -17083,23 +17084,23 @@
       <c r="I149" s="34"/>
     </row>
     <row r="150" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="136" t="s">
+      <c r="B150" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="C150" s="137"/>
-      <c r="D150" s="137"/>
-      <c r="E150" s="137"/>
-      <c r="F150" s="137"/>
-      <c r="G150" s="137"/>
-      <c r="H150" s="137"/>
-      <c r="I150" s="137"/>
+      <c r="C150" s="170"/>
+      <c r="D150" s="170"/>
+      <c r="E150" s="170"/>
+      <c r="F150" s="170"/>
+      <c r="G150" s="170"/>
+      <c r="H150" s="170"/>
+      <c r="I150" s="170"/>
     </row>
     <row r="151" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="152" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="159" t="s">
+      <c r="B152" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="C152" s="160"/>
+      <c r="C152" s="157"/>
       <c r="D152" s="46">
         <f t="array" ref="D152:K152">x</f>
         <v>36</v>
@@ -17127,10 +17128,10 @@
       </c>
     </row>
     <row r="153" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B153" s="176" t="s">
+      <c r="B153" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="C153" s="177"/>
+      <c r="C153" s="159"/>
       <c r="D153" s="57">
         <f t="array" ref="D153:K153">ni</f>
         <v>5</v>
@@ -17162,116 +17163,116 @@
       <c r="B155" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="C155" s="188" t="s">
+      <c r="C155" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="D155" s="189"/>
-      <c r="E155" s="188" t="s">
+      <c r="D155" s="155"/>
+      <c r="E155" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="F155" s="193"/>
-      <c r="G155" s="188" t="s">
+      <c r="F155" s="153"/>
+      <c r="G155" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="H155" s="190"/>
+      <c r="H155" s="149"/>
     </row>
     <row r="156" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="84">
         <v>0</v>
       </c>
-      <c r="C156" s="184">
+      <c r="C156" s="150">
         <f>($D$152^$B156*$D$153 + $E$152^$B156*$E$153 + $F$152^$B156*$F$153 + $G$152^$B156*$G$153 + $H$152^$B156*$H$153 + $I$152^$B156*$I$153 + $J$152^$B156*$J$153 + $K$152^$B156*$K$153) / n</f>
         <v>1</v>
       </c>
-      <c r="D156" s="185"/>
-      <c r="E156" s="184">
+      <c r="D156" s="154"/>
+      <c r="E156" s="150">
         <f>(($D$152-avg)^$B156*$D$153 + ($E$152-avg)^$B156*$E$153 + ($F$152-avg)^$B156*$F$153 + ($G$152-avg)^$B156*$G$153 + ($H$152-avg)^$B156*$H$153 + ($I$152-avg)^$B156*$I$153 + ($J$152-avg)^$B156*$J$153 + ($K$152-avg)^$B156*$K$153) / n</f>
         <v>1</v>
       </c>
-      <c r="F156" s="185"/>
-      <c r="G156" s="184">
+      <c r="F156" s="154"/>
+      <c r="G156" s="150">
         <v>1</v>
       </c>
-      <c r="H156" s="191"/>
+      <c r="H156" s="151"/>
     </row>
     <row r="157" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="84">
         <v>1</v>
       </c>
-      <c r="C157" s="184">
+      <c r="C157" s="150">
         <f>($D$152^$B157*$D$153 + $E$152^$B157*$E$153 + $F$152^$B157*$F$153 + $G$152^$B157*$G$153 + $H$152^$B157*$H$153 + $I$152^$B157*$I$153 + $J$152^$B157*$J$153 + $K$152^$B157*$K$153) / n</f>
         <v>46.47</v>
       </c>
-      <c r="D157" s="185"/>
-      <c r="E157" s="184">
+      <c r="D157" s="154"/>
+      <c r="E157" s="150">
         <f>(($D$152-avg)^$B157*$D$153 + ($E$152-avg)^$B157*$E$153 + ($F$152-avg)^$B157*$F$153 + ($G$152-avg)^$B157*$G$153 + ($H$152-avg)^$B157*$H$153 + ($I$152-avg)^$B157*$I$153 + ($J$152-avg)^$B157*$J$153 + ($K$152-avg)^$B157*$K$153) / n</f>
         <v>1.1368683772161603E-15</v>
       </c>
-      <c r="F157" s="185"/>
-      <c r="G157" s="184">
+      <c r="F157" s="154"/>
+      <c r="G157" s="150">
         <v>0</v>
       </c>
-      <c r="H157" s="191"/>
+      <c r="H157" s="151"/>
     </row>
     <row r="158" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="84">
         <v>2</v>
       </c>
-      <c r="C158" s="184">
+      <c r="C158" s="150">
         <f>($D$152^$B158*$D$153 + $E$152^$B158*$E$153 + $F$152^$B158*$F$153 + $G$152^$B158*$G$153 + $H$152^$B158*$H$153 + $I$152^$B158*$I$153 + $J$152^$B158*$J$153 + $K$152^$B158*$K$153) / n</f>
         <v>2189.61</v>
       </c>
-      <c r="D158" s="185"/>
-      <c r="E158" s="184">
+      <c r="D158" s="154"/>
+      <c r="E158" s="150">
         <f>(($D$152-avg)^$B158*$D$153 + ($E$152-avg)^$B158*$E$153 + ($F$152-avg)^$B158*$F$153 + ($G$152-avg)^$B158*$G$153 + ($H$152-avg)^$B158*$H$153 + ($I$152-avg)^$B158*$I$153 + ($J$152-avg)^$B158*$J$153 + ($K$152-avg)^$B158*$K$153) / n</f>
         <v>30.149099999999997</v>
       </c>
-      <c r="F158" s="185"/>
-      <c r="G158" s="184">
+      <c r="F158" s="154"/>
+      <c r="G158" s="150">
         <f>C158-C157*C157</f>
         <v>30.149100000000089</v>
       </c>
-      <c r="H158" s="191"/>
+      <c r="H158" s="151"/>
     </row>
     <row r="159" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="84">
         <v>3</v>
       </c>
-      <c r="C159" s="184">
+      <c r="C159" s="150">
         <f>($D$152^$B159*$D$153 + $E$152^$B159*$E$153 + $F$152^$B159*$F$153 + $G$152^$B159*$G$153 + $H$152^$B159*$H$153 + $I$152^$B159*$I$153 + $J$152^$B159*$J$153 + $K$152^$B159*$K$153) / n</f>
         <v>104555.07</v>
       </c>
-      <c r="D159" s="185"/>
-      <c r="E159" s="184">
+      <c r="D159" s="154"/>
+      <c r="E159" s="150">
         <f>(($D$152-avg)^$B159*$D$153 + ($E$152-avg)^$B159*$E$153 + ($F$152-avg)^$B159*$F$153 + ($G$152-avg)^$B159*$G$153 + ($H$152-avg)^$B159*$H$153 + ($I$152-avg)^$B159*$I$153 + ($J$152-avg)^$B159*$J$153 + ($K$152-avg)^$B159*$K$153) / n</f>
         <v>1.8359460000001036</v>
       </c>
-      <c r="F159" s="185"/>
-      <c r="G159" s="184">
+      <c r="F159" s="154"/>
+      <c r="G159" s="150">
         <f>C159-3*C158*C157+2*C157^3</f>
         <v>1.8359460000356194</v>
       </c>
-      <c r="H159" s="191"/>
+      <c r="H159" s="151"/>
     </row>
     <row r="160" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B160" s="85">
         <v>4</v>
       </c>
-      <c r="C160" s="186">
+      <c r="C160" s="146">
         <f>($D$152^$B160*$D$153 + $E$152^$B160*$E$153 + $F$152^$B160*$F$153 + $G$152^$B160*$G$153 + $H$152^$B160*$H$153 + $I$152^$B160*$I$153 + $J$152^$B160*$J$153 + $K$152^$B160*$K$153) / n</f>
         <v>5056280.01</v>
       </c>
-      <c r="D160" s="187"/>
-      <c r="E160" s="186">
+      <c r="D160" s="147"/>
+      <c r="E160" s="146">
         <f>(($D$152-avg)^$B160*$D$153 + ($E$152-avg)^$B160*$E$153 + ($F$152-avg)^$B160*$F$153 + ($G$152-avg)^$B160*$G$153 + ($H$152-avg)^$B160*$H$153 + ($I$152-avg)^$B160*$I$153 + ($J$152-avg)^$B160*$J$153 + ($K$152-avg)^$B160*$K$153) / n</f>
         <v>2032.5500075699999</v>
       </c>
-      <c r="F160" s="187"/>
-      <c r="G160" s="186">
+      <c r="F160" s="147"/>
+      <c r="G160" s="146">
         <f>C160-4*C159*C157+6*C158*C157*C157-3*C157^4</f>
         <v>2032.550007564947</v>
       </c>
-      <c r="H160" s="192"/>
+      <c r="H160" s="152"/>
     </row>
     <row r="161" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="162" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -17373,58 +17374,6 @@
     <row r="216" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="B147:U147"/>
-    <mergeCell ref="B150:I150"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B127:I127"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B111:I111"/>
-    <mergeCell ref="B119:I119"/>
-    <mergeCell ref="B124:U124"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B109:U109"/>
-    <mergeCell ref="B16:U16"/>
-    <mergeCell ref="B18:U18"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B105:F105"/>
     <mergeCell ref="B12:U12"/>
     <mergeCell ref="B93:I93"/>
     <mergeCell ref="B94:I94"/>
@@ -17441,6 +17390,58 @@
     <mergeCell ref="B13:U13"/>
     <mergeCell ref="B14:U14"/>
     <mergeCell ref="B15:U15"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B109:U109"/>
+    <mergeCell ref="B16:U16"/>
+    <mergeCell ref="B18:U18"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B127:I127"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B111:I111"/>
+    <mergeCell ref="B119:I119"/>
+    <mergeCell ref="B124:U124"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="B147:U147"/>
+    <mergeCell ref="B150:I150"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="E159:F159"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9:U9" location="'часть 1'!B18" display="определить размах варьирования значений случайной величины;" xr:uid="{ECA59296-1683-43FB-9B7C-F0995B6DDA17}"/>
@@ -17472,53 +17473,53 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="166" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="146"/>
-      <c r="U1" s="147"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="168"/>
     </row>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="146"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="146"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="146"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="147"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
+      <c r="S3" s="167"/>
+      <c r="T3" s="167"/>
+      <c r="U3" s="168"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -17555,16 +17556,16 @@
     </row>
     <row r="9" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="43" t="str">
@@ -17600,16 +17601,16 @@
     </row>
     <row r="15" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
     </row>
     <row r="17" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -17627,28 +17628,28 @@
     </row>
     <row r="19" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="145" t="s">
+      <c r="B20" s="166" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="146"/>
-      <c r="N20" s="146"/>
-      <c r="O20" s="146"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="146"/>
-      <c r="S20" s="146"/>
-      <c r="T20" s="146"/>
-      <c r="U20" s="147"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="167"/>
+      <c r="K20" s="167"/>
+      <c r="L20" s="167"/>
+      <c r="M20" s="167"/>
+      <c r="N20" s="167"/>
+      <c r="O20" s="167"/>
+      <c r="P20" s="167"/>
+      <c r="Q20" s="167"/>
+      <c r="R20" s="167"/>
+      <c r="S20" s="167"/>
+      <c r="T20" s="167"/>
+      <c r="U20" s="168"/>
     </row>
     <row r="21" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -17803,10 +17804,10 @@
       <c r="A1" s="10">
         <v>48</v>
       </c>
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="195"/>
+      <c r="D1" s="208"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
@@ -18398,7 +18399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BC7B7A-21AA-4134-B098-A02899866E0A}">
   <dimension ref="B2:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -18429,7 +18430,7 @@
       <c r="B6" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="196">
+      <c r="C6" s="133">
         <f>SQRT(C4/(C4-1)*C5)</f>
         <v>2</v>
       </c>
@@ -18501,7 +18502,7 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="196">
+      <c r="C14" s="133">
         <f>SUMPRODUCT(C12:E12,C10:E10)/ F10</f>
         <v>1.8</v>
       </c>
@@ -18530,43 +18531,43 @@
     </row>
     <row r="20" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="197"/>
-      <c r="C21" s="200" t="s">
+      <c r="B21" s="134"/>
+      <c r="C21" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="201" t="s">
+      <c r="D21" s="138" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="202" t="s">
+      <c r="E21" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="203" t="s">
+      <c r="F21" s="140" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="198" t="s">
+      <c r="B22" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="204">
+      <c r="C22" s="141">
         <f>C23*$C$18</f>
         <v>8</v>
       </c>
-      <c r="D22" s="204">
+      <c r="D22" s="141">
         <f t="shared" ref="D22:F22" si="1">D23*$C$18</f>
         <v>22</v>
       </c>
-      <c r="E22" s="204">
+      <c r="E22" s="141">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="F22" s="204">
+      <c r="F22" s="141">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="198" t="s">
+      <c r="B23" s="135" t="s">
         <v>109</v>
       </c>
       <c r="C23" s="67">
@@ -18591,19 +18592,19 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="199" t="s">
+      <c r="B24" s="136" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="205">
+      <c r="C24" s="142">
         <v>0.04</v>
       </c>
-      <c r="D24" s="205">
+      <c r="D24" s="142">
         <v>0.11</v>
       </c>
-      <c r="E24" s="205">
+      <c r="E24" s="142">
         <v>0.2</v>
       </c>
-      <c r="F24" s="206">
+      <c r="F24" s="143">
         <v>0.15</v>
       </c>
       <c r="G24">
@@ -18633,7 +18634,7 @@
       <c r="B30" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="208" t="s">
+      <c r="C30" s="145" t="s">
         <v>116</v>
       </c>
     </row>
@@ -18654,19 +18655,19 @@
       <c r="B36" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="196">
+      <c r="C36" s="133">
         <v>2</v>
       </c>
-      <c r="D36" s="196">
+      <c r="D36" s="133">
         <v>4</v>
       </c>
-      <c r="E36" s="196">
+      <c r="E36" s="133">
         <v>6</v>
       </c>
-      <c r="F36" s="196">
+      <c r="F36" s="133">
         <v>8</v>
       </c>
-      <c r="G36" s="196">
+      <c r="G36" s="133">
         <v>10</v>
       </c>
     </row>
@@ -18674,23 +18675,23 @@
       <c r="B37" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="196">
+      <c r="C37" s="133">
         <f>C38*$C$34</f>
         <v>4</v>
       </c>
-      <c r="D37" s="196">
+      <c r="D37" s="133">
         <f t="shared" ref="D37:G37" si="3">D38*$C$34</f>
         <v>18</v>
       </c>
-      <c r="E37" s="196">
+      <c r="E37" s="133">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="F37" s="196">
+      <c r="F37" s="133">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G37" s="196">
+      <c r="G37" s="133">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -18703,19 +18704,19 @@
       <c r="B38" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="207">
+      <c r="C38" s="144">
         <v>0.08</v>
       </c>
-      <c r="D38" s="207">
+      <c r="D38" s="144">
         <v>0.36</v>
       </c>
-      <c r="E38" s="207">
+      <c r="E38" s="144">
         <v>0.2</v>
       </c>
-      <c r="F38" s="207">
+      <c r="F38" s="144">
         <v>0.24</v>
       </c>
-      <c r="G38" s="207">
+      <c r="G38" s="144">
         <v>0.12</v>
       </c>
       <c r="H38">
@@ -18790,7 +18791,7 @@
       <c r="B48" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="196">
+      <c r="C48" s="133">
         <f xml:space="preserve"> SQRT(SUMPRODUCT(C46:E46, C44:E44) / F44)</f>
         <v>2</v>
       </c>
@@ -18828,7 +18829,7 @@
       <c r="B53" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="196">
+      <c r="C53" s="133">
         <f>H52/5</f>
         <v>6.38</v>
       </c>
@@ -18853,19 +18854,19 @@
       <c r="B59" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="207">
+      <c r="C59" s="144">
         <v>5</v>
       </c>
-      <c r="D59" s="207">
+      <c r="D59" s="144">
         <v>10</v>
       </c>
-      <c r="E59" s="207">
+      <c r="E59" s="144">
         <v>15</v>
       </c>
-      <c r="F59" s="207">
+      <c r="F59" s="144">
         <v>20</v>
       </c>
-      <c r="G59" s="196">
+      <c r="G59" s="133">
         <v>25</v>
       </c>
     </row>
@@ -18873,19 +18874,19 @@
       <c r="B60" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C60" s="207">
+      <c r="C60" s="144">
         <v>16</v>
       </c>
-      <c r="D60" s="207">
+      <c r="D60" s="144">
         <v>38</v>
       </c>
-      <c r="E60" s="207">
+      <c r="E60" s="144">
         <v>29</v>
       </c>
-      <c r="F60" s="207">
+      <c r="F60" s="144">
         <v>12</v>
       </c>
-      <c r="G60" s="207">
+      <c r="G60" s="144">
         <f>C58-C60-D60-E60-F60</f>
         <v>5</v>
       </c>
@@ -19004,7 +19005,7 @@
       <c r="D71">
         <v>13</v>
       </c>
-      <c r="E71" s="196">
+      <c r="E71" s="133">
         <f>C67/C68-C71-D71-G71-F71</f>
         <v>38</v>
       </c>
@@ -19145,7 +19146,7 @@
       <c r="B90" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C90" s="196">
+      <c r="C90" s="133">
         <f>SUMPRODUCT(C88:F88,C89:F89)/G89</f>
         <v>13.14</v>
       </c>
@@ -19172,11 +19173,11 @@
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B98" s="196">
+      <c r="B98" s="133">
         <f>C95-C96</f>
         <v>12.5</v>
       </c>
-      <c r="C98" s="196">
+      <c r="C98" s="133">
         <f>C95+C96</f>
         <v>15.5</v>
       </c>
@@ -19245,9 +19246,198 @@
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C107" s="196">
+      <c r="C107" s="133">
         <f>SUMPRODUCT(C105:E105, C103:E103) / F103</f>
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224FA766-A72E-4D6E-8CAB-E418C72FB9B5}">
+  <dimension ref="B2:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f>(C2-B2)*10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>4.8</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E20" si="0">(C3-B3)*10</f>
+        <v>2.0000000000000018</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>4.8</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1.5</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1.7</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>26.9</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>31.000000000000014</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <f>SUM(E2:E20)</f>
+        <v>111.00000000000003</v>
       </c>
     </row>
   </sheetData>
